--- a/BySizeAligns.xlsx
+++ b/BySizeAligns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghan/Documents/PhD/GitHubProjects/v6_2018_Network/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{531C852E-D29D-9048-A6AA-1BF70D439278}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B1D596C1-08B9-7944-A991-60B8059CBC2C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51700" yWindow="4960" windowWidth="30460" windowHeight="21140" activeTab="9" xr2:uid="{A61A643C-678C-5C4A-B0FA-22A61A8A072C}"/>
+    <workbookView xWindow="51700" yWindow="4960" windowWidth="30460" windowHeight="21140" activeTab="5" xr2:uid="{A61A643C-678C-5C4A-B0FA-22A61A8A072C}"/>
   </bookViews>
   <sheets>
     <sheet name="8to10" sheetId="2" r:id="rId1"/>
@@ -8383,7 +8383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8407,6 +8407,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Andale Mono"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Andale Mono"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8428,13 +8441,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10587,7 +10604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93117B7-2AF6-0A4A-B4DF-77E51BF42565}">
   <dimension ref="A1:U268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+    <sheetView topLeftCell="A231" workbookViewId="0">
       <selection activeCell="H236" sqref="H236"/>
     </sheetView>
   </sheetViews>
@@ -49350,15 +49367,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F557CEB-5E4A-5840-8035-B5080B782450}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="9" max="10" width="10.83203125" style="6"/>
+    <col min="24" max="24" width="10.83203125" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -49383,10 +49404,10 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -49423,7 +49444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1">
+    <row r="2" spans="1:24" s="4" customFormat="1">
       <c r="A2" s="4">
         <v>607</v>
       </c>
@@ -49448,10 +49469,10 @@
       <c r="H2" s="4" t="s">
         <v>2344</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>2345</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>2346</v>
       </c>
       <c r="K2" s="4">
@@ -49487,8 +49508,9 @@
       <c r="U2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="X2" s="7"/>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>1450</v>
       </c>
@@ -49513,10 +49535,10 @@
       <c r="H3" t="s">
         <v>2343</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>2384</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="6" t="s">
         <v>2385</v>
       </c>
       <c r="K3">
@@ -49553,7 +49575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>1468</v>
       </c>
@@ -49578,10 +49600,10 @@
       <c r="H4" t="s">
         <v>2349</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="6" t="s">
         <v>2396</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="6" t="s">
         <v>2397</v>
       </c>
       <c r="K4">
@@ -49618,7 +49640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>1453</v>
       </c>
@@ -49643,10 +49665,10 @@
       <c r="H5" t="s">
         <v>2349</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="6" t="s">
         <v>2388</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="6" t="s">
         <v>2389</v>
       </c>
       <c r="K5">
@@ -49683,7 +49705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>1439</v>
       </c>
@@ -49708,10 +49730,10 @@
       <c r="H6" t="s">
         <v>2349</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="6" t="s">
         <v>2380</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="6" t="s">
         <v>2381</v>
       </c>
       <c r="K6">
@@ -49748,72 +49770,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
+    <row r="7" spans="1:24" s="8" customFormat="1">
+      <c r="A7" s="8">
         <v>620</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>1208</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>1633</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="8" t="s">
         <v>2347</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="8" t="s">
         <v>2348</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="8" t="s">
         <v>2349</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="8" t="s">
         <v>2350</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="6" t="s">
         <v>2351</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="6" t="s">
         <v>2352</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="8">
         <v>96.6</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="8">
         <v>67.11</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="8">
         <v>203</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="8">
         <v>15</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="8">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="8">
         <v>4.8780000000000001</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="8">
         <v>0.64970000000000006</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="8">
         <v>0.43630000000000002</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="8">
         <v>0.55659999999999998</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="8">
         <v>0.37109999999999999</v>
       </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="U7" s="8">
+        <v>1</v>
+      </c>
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>1715</v>
       </c>
@@ -49838,10 +49861,10 @@
       <c r="H8" t="s">
         <v>2350</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="6" t="s">
         <v>2401</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="6" t="s">
         <v>2402</v>
       </c>
       <c r="K8">
@@ -49878,7 +49901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>2319</v>
       </c>
@@ -49903,10 +49926,10 @@
       <c r="H9" t="s">
         <v>2350</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="6" t="s">
         <v>2425</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="6" t="s">
         <v>2426</v>
       </c>
       <c r="K9">
@@ -49943,7 +49966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>1279</v>
       </c>
@@ -49968,10 +49991,10 @@
       <c r="H10" t="s">
         <v>2355</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="6" t="s">
         <v>2356</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="6" t="s">
         <v>2357</v>
       </c>
       <c r="K10">
@@ -50008,7 +50031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>2822</v>
       </c>
@@ -50033,10 +50056,10 @@
       <c r="H11" t="s">
         <v>2360</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="6" t="s">
         <v>2430</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="6" t="s">
         <v>2431</v>
       </c>
       <c r="K11">
@@ -50073,7 +50096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>1280</v>
       </c>
@@ -50098,10 +50121,10 @@
       <c r="H12" t="s">
         <v>2360</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="6" t="s">
         <v>2361</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="6" t="s">
         <v>2362</v>
       </c>
       <c r="K12">
@@ -50138,7 +50161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>1281</v>
       </c>
@@ -50163,10 +50186,10 @@
       <c r="H13" t="s">
         <v>30</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="6" t="s">
         <v>2366</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="6" t="s">
         <v>2367</v>
       </c>
       <c r="K13">
@@ -50203,7 +50226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>1790</v>
       </c>
@@ -50228,10 +50251,10 @@
       <c r="H14" t="s">
         <v>1313</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="6" t="s">
         <v>2409</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="6" t="s">
         <v>2410</v>
       </c>
       <c r="K14">
@@ -50268,7 +50291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>571</v>
       </c>
@@ -50293,10 +50316,10 @@
       <c r="H15" t="s">
         <v>1313</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="6" t="s">
         <v>2339</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="6" t="s">
         <v>2340</v>
       </c>
       <c r="K15">
@@ -50333,7 +50356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>1766</v>
       </c>
@@ -50358,10 +50381,10 @@
       <c r="H16" t="s">
         <v>1313</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="6" t="s">
         <v>2405</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="6" t="s">
         <v>2406</v>
       </c>
       <c r="K16">
@@ -50423,10 +50446,10 @@
       <c r="H17" t="s">
         <v>1313</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="6" t="s">
         <v>2417</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="6" t="s">
         <v>2418</v>
       </c>
       <c r="K17">
@@ -50488,10 +50511,10 @@
       <c r="H18" t="s">
         <v>1301</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="6" t="s">
         <v>2392</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="6" t="s">
         <v>2393</v>
       </c>
       <c r="K18">
@@ -50553,10 +50576,10 @@
       <c r="H19" t="s">
         <v>1652</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="6" t="s">
         <v>2369</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="6" t="s">
         <v>2370</v>
       </c>
       <c r="K19">
@@ -50618,10 +50641,10 @@
       <c r="H20" t="s">
         <v>1652</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="6" t="s">
         <v>2372</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="6" t="s">
         <v>2373</v>
       </c>
       <c r="K20">
@@ -50683,10 +50706,10 @@
       <c r="H21" t="s">
         <v>1301</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="6" t="s">
         <v>2335</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="6" t="s">
         <v>2336</v>
       </c>
       <c r="K21">
@@ -50748,10 +50771,10 @@
       <c r="H22" t="s">
         <v>1652</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="6" t="s">
         <v>2376</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="6" t="s">
         <v>2377</v>
       </c>
       <c r="K22">
@@ -50813,10 +50836,10 @@
       <c r="H23" t="s">
         <v>1603</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="6" t="s">
         <v>2421</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="6" t="s">
         <v>2422</v>
       </c>
       <c r="K23">
@@ -50878,10 +50901,10 @@
       <c r="H24" t="s">
         <v>1603</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="6" t="s">
         <v>2413</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="6" t="s">
         <v>2414</v>
       </c>
       <c r="K24">
@@ -50943,10 +50966,10 @@
       <c r="H25" t="s">
         <v>1228</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="6" t="s">
         <v>1616</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="6" t="s">
         <v>2332</v>
       </c>
       <c r="K25">
@@ -51008,10 +51031,10 @@
       <c r="H26" t="s">
         <v>1228</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="6" t="s">
         <v>2332</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="6" t="s">
         <v>1632</v>
       </c>
       <c r="K26">
@@ -51053,6 +51076,7 @@
     <sortCondition descending="1" ref="M2:M26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/BySizeAligns.xlsx
+++ b/BySizeAligns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghan/Documents/PhD/GitHubProjects/v6_2018_Network/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghan/Documents/PhD/GitProjects/v6_2018_Network/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0722AC-AF2D-D14C-B583-A67C15BD02DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776AFAB4-8CA4-554E-82B3-867D457BD758}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="460" windowWidth="29980" windowHeight="26720" activeTab="9" xr2:uid="{A61A643C-678C-5C4A-B0FA-22A61A8A072C}"/>
+    <workbookView xWindow="28800" yWindow="40" windowWidth="28800" windowHeight="16480" activeTab="9" xr2:uid="{A61A643C-678C-5C4A-B0FA-22A61A8A072C}"/>
   </bookViews>
   <sheets>
     <sheet name="8to10" sheetId="2" r:id="rId1"/>
@@ -10646,8 +10646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93117B7-2AF6-0A4A-B4DF-77E51BF42565}">
   <dimension ref="A1:V269"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="E214" sqref="E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
